--- a/webApi.xlsx
+++ b/webApi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,24 +216,6 @@
   <si>
     <t>{
 String state:"修改成功"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-String state:状态[fail]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-String state:状态[fail]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-String state:状态[fail]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -788,19 +770,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,14 +796,12 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -834,14 +814,12 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -854,14 +832,12 @@
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -874,14 +850,12 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -894,14 +868,12 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -920,15 +892,15 @@
         <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -938,7 +910,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -954,7 +926,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -970,7 +942,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4"/>
     </row>

--- a/webApi.xlsx
+++ b/webApi.xlsx
@@ -304,7 +304,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/user/getUser/{id}</t>
+    <t xml:space="preserve"> /user/getUser/{id}     
+如：/user/getUser/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -769,7 +770,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">

--- a/webApi.xlsx
+++ b/webApi.xlsx
@@ -304,8 +304,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> /user/getUser/{id}     
-如：/user/getUser/1</t>
+    <t>/user/getUser/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -770,7 +769,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">

--- a/webApi.xlsx
+++ b/webApi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,11 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"1:登录成功"
-"0:用户名或密码错误"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 String state:0
 }</t>
@@ -223,11 +218,6 @@
     <t>{
 String state:0
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“1 删除成功
-  0 删除失败”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,6 +296,37 @@
   <si>
     <t xml:space="preserve"> /user/getUser/{id}     
 如：/user/getUser/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1:登录成功"
+"0:用户名或密码错误"
+前后端实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“1 删除成功
+  0 删除失败”
+后端实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前后端实现
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前后端实现
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前后端实现
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,10 +383,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -684,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -736,13 +757,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,194 +779,223 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
